--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
@@ -48,7 +48,7 @@
     <t>GFDL-ESM2M</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="847">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>Coupling with snow temperature</t>
+  </si>
+  <si>
+    <t>Other: plant uptake and ground divergence</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -3223,20 +3226,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3247,10 +3250,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3258,7 +3261,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3269,10 +3272,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3285,7 +3288,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -3296,10 +3299,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3312,7 +3315,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -3323,10 +3326,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3334,7 +3337,7 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>195</v>
@@ -3345,10 +3348,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3371,7 +3374,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3385,20 +3388,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3409,10 +3412,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3420,7 +3423,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3431,10 +3434,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3447,7 +3450,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -3458,10 +3461,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3474,7 +3477,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -3485,10 +3488,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3496,10 +3499,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3507,10 +3510,10 @@
         <v>115</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3518,10 +3521,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3529,10 +3532,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3540,10 +3543,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3551,10 +3554,10 @@
         <v>120</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3564,10 +3567,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3575,10 +3578,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3589,10 +3592,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>74</v>
@@ -3600,10 +3603,10 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -3611,10 +3614,10 @@
         <v>115</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3624,10 +3627,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3635,10 +3638,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3651,10 +3654,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3662,10 +3665,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3676,13 +3679,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3701,21 +3704,21 @@
         <v>66</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>74</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3734,10 +3737,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3750,7 +3753,7 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>195</v>
@@ -3761,10 +3764,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3777,23 +3780,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3801,21 +3804,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>74</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3834,10 +3837,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3846,22 +3849,41 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>761</v>
+      </c>
       <c r="AA78" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -3889,6 +3911,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AD78</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AD79</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3910,20 +3935,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3934,10 +3959,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3945,7 +3970,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3956,10 +3981,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3972,10 +3997,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3983,10 +4008,10 @@
         <v>115</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3996,7 +4021,7 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>119</v>
@@ -4007,10 +4032,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4018,10 +4043,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4029,10 +4054,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4042,16 +4067,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>74</v>
@@ -4062,13 +4087,13 @@
         <v>69</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -4076,10 +4101,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4087,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4098,7 +4123,7 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>195</v>
@@ -4109,10 +4134,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4125,23 +4150,23 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4149,10 +4174,10 @@
         <v>115</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4162,7 +4187,7 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>219</v>
@@ -4173,10 +4198,10 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
@@ -4187,7 +4212,7 @@
         <v>240</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -4195,10 +4220,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4206,10 +4231,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4219,16 +4244,16 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AA51" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB51" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="AB51" s="6" t="s">
-        <v>829</v>
-      </c>
       <c r="AC51" s="6" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -4236,10 +4261,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4247,10 +4272,10 @@
         <v>115</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4260,10 +4285,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4271,10 +4296,10 @@
         <v>115</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4284,20 +4309,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>61</v>
@@ -4308,10 +4333,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -5369,7 +5394,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD181"/>
+  <dimension ref="A1:XFD182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6412,7 +6437,9 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="AA181" s="6" t="s">
         <v>349</v>
       </c>
@@ -6423,8 +6450,22 @@
         <v>74</v>
       </c>
     </row>
+    <row r="182" spans="1:29" ht="24" customHeight="1">
+      <c r="B182" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA182" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB182" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC182" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
@@ -6470,6 +6511,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
       <formula1>AA181:AC181</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
+      <formula1>AA182:AC182</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6491,20 +6535,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6515,10 +6559,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6526,7 +6570,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6537,10 +6581,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6553,7 +6597,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -6564,10 +6608,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6580,10 +6624,10 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6591,10 +6635,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6604,10 +6648,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6615,21 +6659,21 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA24" s="6" t="s">
         <v>240</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>74</v>
@@ -6637,10 +6681,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6648,10 +6692,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
@@ -6662,7 +6706,7 @@
         <v>240</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -6670,10 +6714,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6681,10 +6725,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -6693,7 +6737,7 @@
         <v>240</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>74</v>
@@ -6701,10 +6745,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6712,10 +6756,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -6726,7 +6770,7 @@
         <v>240</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>74</v>
@@ -6734,10 +6778,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6745,10 +6789,10 @@
         <v>66</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -6759,7 +6803,7 @@
         <v>240</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>74</v>
@@ -6767,10 +6811,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6778,10 +6822,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6791,13 +6835,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -6805,13 +6849,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA46" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="AA46" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="AB46" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -6819,7 +6863,7 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>346</v>
@@ -6830,10 +6874,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6843,19 +6887,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>74</v>
@@ -6863,19 +6907,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>74</v>
@@ -6883,19 +6927,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AA53" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="AB53" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>74</v>
@@ -6903,7 +6947,7 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>195</v>
@@ -6914,10 +6958,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6930,23 +6974,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6954,10 +6998,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6968,10 +7012,10 @@
         <v>240</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -6979,7 +7023,7 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>244</v>
@@ -6990,10 +7034,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7002,21 +7046,23 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="AA71" s="6" t="s">
         <v>247</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>74</v>
@@ -7084,20 +7130,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7108,10 +7154,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7119,7 +7165,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7130,10 +7176,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7146,7 +7192,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>119</v>
@@ -7157,10 +7203,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7168,10 +7214,10 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
@@ -7179,10 +7225,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7190,7 +7236,7 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>95</v>
@@ -7201,10 +7247,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7217,10 +7263,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7228,21 +7274,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA28" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -7250,10 +7296,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7261,10 +7307,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7275,16 +7321,16 @@
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>89</v>
@@ -7295,10 +7341,10 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
@@ -7306,10 +7352,10 @@
         <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
@@ -7319,43 +7365,43 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA38" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD38" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AB38" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="AE38" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL38" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM38" s="6" t="s">
         <v>74</v>
@@ -7363,43 +7409,43 @@
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA39" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AB39" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD39" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AB39" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="AE39" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM39" s="6" t="s">
         <v>74</v>
@@ -7407,43 +7453,43 @@
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD40" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AA40" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD40" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="AE40" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>74</v>
@@ -7451,43 +7497,43 @@
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD41" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE41" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF41" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG41" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH41" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI41" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="AA41" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC41" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD41" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE41" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AF41" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AG41" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH41" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AI41" s="6" t="s">
-        <v>466</v>
-      </c>
       <c r="AJ41" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>74</v>
@@ -7495,10 +7541,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7506,24 +7552,24 @@
         <v>66</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA45" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC45" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>74</v>
@@ -7531,10 +7577,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7542,10 +7588,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7553,10 +7599,10 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7564,10 +7610,10 @@
         <v>115</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7577,10 +7623,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7588,10 +7634,10 @@
         <v>66</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -7602,7 +7648,7 @@
         <v>240</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>74</v>
@@ -7610,10 +7656,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7621,10 +7667,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7637,10 +7683,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7648,24 +7694,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AB66" s="6" t="s">
         <v>240</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7673,10 +7719,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7684,10 +7730,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7700,10 +7746,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7711,10 +7757,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7725,7 +7771,7 @@
         <v>240</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>74</v>
@@ -7733,10 +7779,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7744,10 +7790,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7760,10 +7806,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7771,10 +7817,10 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
@@ -7783,7 +7829,7 @@
         <v>240</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>74</v>
@@ -7791,10 +7837,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7802,10 +7848,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7818,10 +7864,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7829,10 +7875,10 @@
         <v>66</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7842,22 +7888,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA94" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB94" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC94" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD94" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AB94" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC94" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD94" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="AE94" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>74</v>
@@ -7865,22 +7911,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA95" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB95" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC95" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD95" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AA95" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB95" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC95" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD95" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="AE95" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>74</v>
@@ -7888,22 +7934,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA96" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB96" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD96" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AB96" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD96" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="AE96" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>74</v>
@@ -7911,22 +7957,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA97" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AA97" s="6" t="s">
+      <c r="AB97" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD97" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AB97" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC97" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD97" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="AE97" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>74</v>
@@ -7934,10 +7980,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7945,10 +7991,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -7961,7 +8007,7 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>195</v>
@@ -7972,10 +8018,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -8063,20 +8109,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8087,10 +8133,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8098,7 +8144,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8109,10 +8155,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8125,7 +8171,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -8136,10 +8182,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8152,10 +8198,10 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -8163,10 +8209,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8176,10 +8222,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8187,10 +8233,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8200,19 +8246,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>74</v>
@@ -8220,7 +8266,7 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>346</v>
@@ -8231,10 +8277,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8243,9 +8289,11 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>562</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>74</v>
@@ -8283,20 +8331,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8307,10 +8355,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8318,7 +8366,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8329,10 +8377,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8345,7 +8393,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -8356,10 +8404,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8372,7 +8420,7 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -8383,10 +8431,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8394,10 +8442,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8405,10 +8453,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8419,13 +8467,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -8433,7 +8481,7 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>195</v>
@@ -8444,10 +8492,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8460,23 +8508,23 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -8484,10 +8532,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8497,10 +8545,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8508,10 +8556,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8521,15 +8569,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8537,10 +8585,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8553,20 +8601,20 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>287</v>
@@ -8577,10 +8625,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8593,23 +8641,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8617,10 +8665,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8633,10 +8681,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8644,10 +8692,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8660,20 +8708,20 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>287</v>
@@ -8684,10 +8732,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8700,10 +8748,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8711,27 +8759,27 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA84" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB84" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC84" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="AB84" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="AC84" s="6" t="s">
-        <v>630</v>
-      </c>
       <c r="AD84" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>74</v>
@@ -8739,10 +8787,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8750,27 +8798,27 @@
         <v>66</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AA88" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB88" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC88" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="AB88" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="AC88" s="6" t="s">
-        <v>638</v>
-      </c>
       <c r="AD88" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>74</v>
@@ -8778,20 +8826,20 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>287</v>
@@ -8802,10 +8850,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8813,20 +8861,20 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>287</v>
@@ -8837,10 +8885,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8848,23 +8896,23 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -8872,10 +8920,10 @@
         <v>120</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8883,10 +8931,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8894,10 +8942,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8910,10 +8958,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8921,10 +8969,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8937,7 +8985,7 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>287</v>
@@ -8948,10 +8996,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8964,23 +9012,23 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -8988,10 +9036,10 @@
         <v>120</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8999,10 +9047,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -9010,10 +9058,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9023,15 +9071,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9039,10 +9087,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9055,7 +9103,7 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>287</v>
@@ -9066,10 +9114,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9082,23 +9130,23 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -9106,10 +9154,10 @@
         <v>115</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9117,10 +9165,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9128,10 +9176,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9144,10 +9192,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9155,10 +9203,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9171,10 +9219,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9182,10 +9230,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
@@ -879,10 +879,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>Perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="879">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -234,123 +234,141 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -768,762 +786,810 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Direct Diffuse</t>
+  </si>
+  <si>
+    <t>If prognostic, describe the distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
+  </si>
+  <si>
+    <t>Distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.4 </t>
+  </si>
+  <si>
+    <t>Number Of Wavelength Bands</t>
+  </si>
+  <si>
+    <t>If prognostic, enter the number of wavelength bands used</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.snow_free_albedo.number_of_wavelength_bands</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Hydrology</t>
+  </si>
+  <si>
+    <t>Key properties of the soil hydrology</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>General description of the soil hydrological model</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.description</t>
+  </si>
+  <si>
+    <t>3.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Time step of river soil hydrology in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.1.3 </t>
+  </si>
+  <si>
+    <t>Describe the soil hydrology tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.tiling</t>
+  </si>
+  <si>
+    <t>3.4.1.4 *</t>
+  </si>
+  <si>
+    <t>Vertical Discretisation</t>
+  </si>
+  <si>
+    <t>Describe the typical vertical discretisation</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.vertical_discretisation</t>
+  </si>
+  <si>
+    <t>3.4.1.5 *</t>
+  </si>
+  <si>
+    <t>Number Of Ground Water Layers</t>
+  </si>
+  <si>
+    <t>The number of soil layers that may contain water</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.number_of_ground_water_layers</t>
+  </si>
+  <si>
+    <t>3.4.1.6 *</t>
+  </si>
+  <si>
+    <t>Lateral Connectivity</t>
+  </si>
+  <si>
+    <t>Describe the lateral connectivity between tiles</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
+  </si>
+  <si>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
+  </si>
+  <si>
+    <t>3.4.1.7 *</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>The hydrological dynamics scheme in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.method</t>
+  </si>
+  <si>
+    <t>Other: generalized richards equation</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Force-restore</t>
+  </si>
+  <si>
+    <t>Choisnel</t>
+  </si>
+  <si>
+    <t>Explicit diffusion</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Hydrology --&gt; Freezing</t>
+  </si>
+  <si>
+    <t>Frozen soil treatment</t>
+  </si>
+  <si>
+    <t>3.4.2.1 *</t>
+  </si>
+  <si>
+    <t>Number Of Ground Ice Layers</t>
+  </si>
+  <si>
+    <t>How many soil layers may contain ground ice</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.freezing.number_of_ground_ice_layers</t>
+  </si>
+  <si>
+    <t>3.4.2.2 *</t>
+  </si>
+  <si>
+    <t>Ice Storage Method</t>
+  </si>
+  <si>
+    <t>Describe the method of ice storage</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
+  </si>
+  <si>
+    <t>Basic thermodynamics</t>
+  </si>
+  <si>
+    <t>3.4.2.3 *</t>
+  </si>
+  <si>
+    <t>Permafrost</t>
+  </si>
+  <si>
+    <t>Describe the treatment of permafrost, if any, within the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.freezing.permafrost</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Hydrology --&gt; Drainage</t>
+  </si>
+  <si>
+    <t>Drainage treatment in the soil</t>
+  </si>
+  <si>
+    <t>3.4.3.1 *</t>
+  </si>
+  <si>
+    <t>General describe how drainage is included in the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.drainage.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.3.2 </t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Different types of runoff represented by the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.drainage.types</t>
+  </si>
+  <si>
+    <t>Gravity drainage</t>
+  </si>
+  <si>
+    <t>Horton mechanism</t>
+  </si>
+  <si>
+    <t>topmodel-based</t>
+  </si>
+  <si>
+    <t>Dunne mechanism</t>
+  </si>
+  <si>
+    <t>Lateral subsurface flow</t>
+  </si>
+  <si>
+    <t>Baseflow from groundwater</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Heat Treatment</t>
+  </si>
+  <si>
+    <t>Soil heat treatment</t>
+  </si>
+  <si>
+    <t>3.5.1.1 *</t>
+  </si>
+  <si>
+    <t>General description of how heat treatment properties are defined</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.description</t>
+  </si>
+  <si>
+    <t>3.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Time step of soil heat scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.1.3 </t>
+  </si>
+  <si>
+    <t>Describe the soil heat treatment tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.tiling</t>
+  </si>
+  <si>
+    <t>3.5.1.4 *</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.vertical_discretisation</t>
+  </si>
+  <si>
+    <t>3.5.1.5 *</t>
+  </si>
+  <si>
+    <t>Heat Storage</t>
+  </si>
+  <si>
+    <t>Specify the method of heat storage</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.heat_storage</t>
+  </si>
+  <si>
+    <t>3.5.1.6 *</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Describe processes included in the treatment of soil heat</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.processes</t>
+  </si>
+  <si>
+    <t>Soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
+  </si>
+  <si>
+    <t>Other: plant uptake and ground divergence</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Land surface snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the snow in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface snow in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.3 </t>
+  </si>
+  <si>
+    <t>Describe the snow tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.tiling</t>
+  </si>
+  <si>
+    <t>4.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Number Of Snow Layers</t>
+  </si>
+  <si>
+    <t>The number of snow levels used in the land surface scheme/model</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.number_of_snow_layers</t>
+  </si>
+  <si>
+    <t>4.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow density</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.density</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>4.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Water Equivalent</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the snow water equivalent</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.water_equivalent</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Heat Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the heat content of snow</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.heat_content</t>
+  </si>
+  <si>
+    <t>4.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow temperature</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.temperature</t>
+  </si>
+  <si>
+    <t>4.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Liquid Water Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow liquid water</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.liquid_water_content</t>
+  </si>
+  <si>
+    <t>4.1.1.10 *</t>
+  </si>
+  <si>
+    <t>Snow Cover Fractions</t>
+  </si>
+  <si>
+    <t>Specify cover fractions used in the surface snow scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_cover_fractions</t>
+  </si>
+  <si>
+    <t>Ground snow fraction</t>
+  </si>
+  <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
+    <t>Vegetation snow fraction</t>
+  </si>
+  <si>
+    <t>4.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Snow related processes in the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.processes</t>
+  </si>
+  <si>
+    <t>Other: snow refreezing</t>
+  </si>
+  <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
+    <t>Snow interception</t>
+  </si>
+  <si>
+    <t>Snow melting</t>
+  </si>
+  <si>
+    <t>4.1.1.12 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the snow scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.prognostic_variables</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Snow --&gt; Snow Albedo</t>
+  </si>
+  <si>
+    <t>Snow albedo</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Describe the treatment of snow-covered land albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.type</t>
+  </si>
+  <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Describe the function types if prognostic snow albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.functions</t>
+  </si>
+  <si>
     <t>Vegetation type</t>
   </si>
   <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Direct Diffuse</t>
-  </si>
-  <si>
-    <t>If prognostic, describe the distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
-  </si>
-  <si>
-    <t>Distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>No distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.4 </t>
-  </si>
-  <si>
-    <t>Number Of Wavelength Bands</t>
-  </si>
-  <si>
-    <t>If prognostic, enter the number of wavelength bands used</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.snow_free_albedo.number_of_wavelength_bands</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Hydrology</t>
-  </si>
-  <si>
-    <t>Key properties of the soil hydrology</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>General description of the soil hydrological model</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.description</t>
-  </si>
-  <si>
-    <t>3.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Time step of river soil hydrology in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.1.3 </t>
-  </si>
-  <si>
-    <t>Describe the soil hydrology tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.tiling</t>
-  </si>
-  <si>
-    <t>3.4.1.4 *</t>
-  </si>
-  <si>
-    <t>Vertical Discretisation</t>
-  </si>
-  <si>
-    <t>Describe the typical vertical discretisation</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.vertical_discretisation</t>
-  </si>
-  <si>
-    <t>3.4.1.5 *</t>
-  </si>
-  <si>
-    <t>Number Of Ground Water Layers</t>
-  </si>
-  <si>
-    <t>The number of soil layers that may contain water</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.number_of_ground_water_layers</t>
-  </si>
-  <si>
-    <t>3.4.1.6 *</t>
-  </si>
-  <si>
-    <t>Lateral Connectivity</t>
-  </si>
-  <si>
-    <t>Describe the lateral connectivity between tiles</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
-  </si>
-  <si>
-    <t>Perfect connectivity: Common soil for multiple tiles</t>
-  </si>
-  <si>
-    <t>Darcian flow: Darcian flow among hillslope tiles</t>
-  </si>
-  <si>
-    <t>3.4.1.7 *</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>The hydrological dynamics scheme in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.method</t>
-  </si>
-  <si>
-    <t>Other: generalized richards equation</t>
-  </si>
-  <si>
-    <t>Bucket</t>
-  </si>
-  <si>
-    <t>Force-restore</t>
-  </si>
-  <si>
-    <t>Choisnel</t>
-  </si>
-  <si>
-    <t>Explicit diffusion</t>
-  </si>
-  <si>
-    <t>3.4.2</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Hydrology --&gt; Freezing</t>
-  </si>
-  <si>
-    <t>Frozen soil treatment</t>
-  </si>
-  <si>
-    <t>3.4.2.1 *</t>
-  </si>
-  <si>
-    <t>Number Of Ground Ice Layers</t>
-  </si>
-  <si>
-    <t>How many soil layers may contain ground ice</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.freezing.number_of_ground_ice_layers</t>
-  </si>
-  <si>
-    <t>3.4.2.2 *</t>
-  </si>
-  <si>
-    <t>Ice Storage Method</t>
-  </si>
-  <si>
-    <t>Describe the method of ice storage</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
-  </si>
-  <si>
-    <t>Basic thermodynamics</t>
-  </si>
-  <si>
-    <t>3.4.2.3 *</t>
-  </si>
-  <si>
-    <t>Permafrost</t>
-  </si>
-  <si>
-    <t>Describe the treatment of permafrost, if any, within the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.freezing.permafrost</t>
-  </si>
-  <si>
-    <t>3.4.3</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Hydrology --&gt; Drainage</t>
-  </si>
-  <si>
-    <t>Drainage treatment in the soil</t>
-  </si>
-  <si>
-    <t>3.4.3.1 *</t>
-  </si>
-  <si>
-    <t>General describe how drainage is included in the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.drainage.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.3.2 </t>
-  </si>
-  <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>Different types of runoff represented by the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.drainage.types</t>
-  </si>
-  <si>
-    <t>Gravity drainage</t>
-  </si>
-  <si>
-    <t>Horton mechanism</t>
-  </si>
-  <si>
-    <t>Topmodel-based</t>
-  </si>
-  <si>
-    <t>Dunne mechanism</t>
-  </si>
-  <si>
-    <t>Lateral subsurface flow</t>
-  </si>
-  <si>
-    <t>Baseflow from groundwater</t>
-  </si>
-  <si>
-    <t>3.5.1</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Heat Treatment</t>
-  </si>
-  <si>
-    <t>Soil heat treatment</t>
-  </si>
-  <si>
-    <t>3.5.1.1 *</t>
-  </si>
-  <si>
-    <t>General description of how heat treatment properties are defined</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.description</t>
-  </si>
-  <si>
-    <t>3.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Time step of soil heat scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.1.3 </t>
-  </si>
-  <si>
-    <t>Describe the soil heat treatment tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.tiling</t>
-  </si>
-  <si>
-    <t>3.5.1.4 *</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.vertical_discretisation</t>
-  </si>
-  <si>
-    <t>3.5.1.5 *</t>
-  </si>
-  <si>
-    <t>Heat Storage</t>
-  </si>
-  <si>
-    <t>Specify the method of heat storage</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.heat_storage</t>
-  </si>
-  <si>
-    <t>3.5.1.6 *</t>
-  </si>
-  <si>
-    <t>Processes</t>
-  </si>
-  <si>
-    <t>Describe processes included in the treatment of soil heat</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.processes</t>
-  </si>
-  <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
-  </si>
-  <si>
-    <t>Other: plant uptake and ground divergence</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Land surface snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the snow in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface snow in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.3 </t>
-  </si>
-  <si>
-    <t>Describe the snow tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.tiling</t>
-  </si>
-  <si>
-    <t>4.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Number Of Snow Layers</t>
-  </si>
-  <si>
-    <t>The number of snow levels used in the land surface scheme/model</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.number_of_snow_layers</t>
-  </si>
-  <si>
-    <t>4.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow density</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.density</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>4.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Water Equivalent</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the snow water equivalent</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.water_equivalent</t>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Land surface vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Time step of vegetation scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.time_step</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Dynamic Vegetation</t>
+  </si>
+  <si>
+    <t>Is there dynamic evolution of vegetation?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.dynamic_vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Describe the vegetation tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.tiling</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Vegetation Representation</t>
+  </si>
+  <si>
+    <t>Vegetation classification used</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_representation</t>
+  </si>
+  <si>
+    <t>Biome types</t>
+  </si>
+  <si>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.7 </t>
+  </si>
+  <si>
+    <t>Vegetation Types</t>
+  </si>
+  <si>
+    <t>List of vegetation types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_types</t>
+  </si>
+  <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.8 </t>
+  </si>
+  <si>
+    <t>Biome Types</t>
+  </si>
+  <si>
+    <t>List of biome types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.biome_types</t>
+  </si>
+  <si>
+    <t>Deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>Evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>Evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Vegetation Time Variation</t>
+  </si>
+  <si>
+    <t>How the vegetation fractions in each tile are varying with time</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_time_variation</t>
+  </si>
+  <si>
+    <t>Dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.10 </t>
+  </si>
+  <si>
+    <t>Vegetation Map</t>
+  </si>
+  <si>
+    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_map</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Is vegetation interception of rainwater represented?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.interception</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology</t>
+  </si>
+  <si>
+    <t>diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.13 </t>
+  </si>
+  <si>
+    <t>Phenology Description</t>
+  </si>
+  <si>
+    <t>General description of the treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology_description</t>
+  </si>
+  <si>
+    <t>5.1.1.14 *</t>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation leaf area index</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.leaf_area_index</t>
   </si>
   <si>
     <t>Diagnostic</t>
   </si>
   <si>
-    <t>4.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Heat Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the heat content of snow</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.heat_content</t>
-  </si>
-  <si>
-    <t>4.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow temperature</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.temperature</t>
-  </si>
-  <si>
-    <t>4.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Liquid Water Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow liquid water</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.liquid_water_content</t>
-  </si>
-  <si>
-    <t>4.1.1.10 *</t>
-  </si>
-  <si>
-    <t>Snow Cover Fractions</t>
-  </si>
-  <si>
-    <t>Specify cover fractions used in the surface snow scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_cover_fractions</t>
-  </si>
-  <si>
-    <t>Ground snow fraction</t>
-  </si>
-  <si>
-    <t>Vegetation snow fraction</t>
-  </si>
-  <si>
-    <t>4.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Snow related processes in the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.processes</t>
-  </si>
-  <si>
-    <t>Other: snow refreezing</t>
-  </si>
-  <si>
-    <t>Snow interception</t>
-  </si>
-  <si>
-    <t>Snow melting</t>
-  </si>
-  <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
-    <t>4.1.1.12 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the snow scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.prognostic_variables</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Snow --&gt; Snow Albedo</t>
-  </si>
-  <si>
-    <t>Snow albedo</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Describe the treatment of snow-covered land albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.type</t>
-  </si>
-  <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe the function types if prognostic snow albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.functions</t>
-  </si>
-  <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Land surface vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Time step of vegetation scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.time_step</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Dynamic Vegetation</t>
-  </si>
-  <si>
-    <t>Is there dynamic evolution of vegetation?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.dynamic_vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Describe the vegetation tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.tiling</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Vegetation Representation</t>
-  </si>
-  <si>
-    <t>Vegetation classification used</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_representation</t>
-  </si>
-  <si>
-    <t>Biome types</t>
-  </si>
-  <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.7 </t>
-  </si>
-  <si>
-    <t>Vegetation Types</t>
-  </si>
-  <si>
-    <t>List of vegetation types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_types</t>
-  </si>
-  <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.8 </t>
-  </si>
-  <si>
-    <t>Biome Types</t>
-  </si>
-  <si>
-    <t>List of biome types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.biome_types</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Vegetation Time Variation</t>
-  </si>
-  <si>
-    <t>How the vegetation fractions in each tile are varying with time</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_time_variation</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
-  </si>
-  <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.10 </t>
-  </si>
-  <si>
-    <t>Vegetation Map</t>
-  </si>
-  <si>
-    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_map</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Is vegetation interception of rainwater represented?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.interception</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology</t>
-  </si>
-  <si>
-    <t>Diagnostic (vegetation map)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.13 </t>
-  </si>
-  <si>
-    <t>Phenology Description</t>
-  </si>
-  <si>
-    <t>General description of the treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology_description</t>
-  </si>
-  <si>
-    <t>5.1.1.14 *</t>
-  </si>
-  <si>
-    <t>Leaf Area Index</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation leaf area index</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.leaf_area_index</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1599,15 +1665,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1692,13 +1767,13 @@
     <t>Other: linked to photosynthesis</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Combined</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1716,6 +1791,9 @@
     <t>Transpiration</t>
   </si>
   <si>
+    <t>transpiration</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1773,13 +1851,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1923,13 +2001,16 @@
     <t>Leaves + fine roots + coarse roots + stems</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1947,13 +2028,16 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2268,10 +2352,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2310,90 +2394,99 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
+  </si>
+  <si>
+    <t>9.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Basin Flow Direction Map</t>
+  </si>
+  <si>
+    <t>What type of basin flow direction map is being used?</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
+  </si>
+  <si>
+    <t>Present day</t>
+  </si>
+  <si>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.1.13 </t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>Describe the representation of flooding, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.flooding</t>
+  </si>
+  <si>
+    <t>9.1.1.14 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the river routing</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.prognostic_variables</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>River Routing --&gt; Oceanic Discharge</t>
+  </si>
+  <si>
+    <t>Oceanic discharge treatment in river routing</t>
+  </si>
+  <si>
+    <t>9.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Discharge Type</t>
+  </si>
+  <si>
+    <t>Specify how rivers are discharged to the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
+  </si>
+  <si>
+    <t>Direct (large rivers)</t>
+  </si>
+  <si>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>9.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Quantities Transported</t>
+  </si>
+  <si>
+    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
+  </si>
+  <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>Tracers</t>
-  </si>
-  <si>
-    <t>9.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Basin Flow Direction Map</t>
-  </si>
-  <si>
-    <t>What type of basin flow direction map is being used?</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
-  </si>
-  <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.1.13 </t>
-  </si>
-  <si>
-    <t>Flooding</t>
-  </si>
-  <si>
-    <t>Describe the representation of flooding, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.flooding</t>
-  </si>
-  <si>
-    <t>9.1.1.14 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the river routing</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.prognostic_variables</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>River Routing --&gt; Oceanic Discharge</t>
-  </si>
-  <si>
-    <t>Oceanic discharge treatment in river routing</t>
-  </si>
-  <si>
-    <t>9.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Discharge Type</t>
-  </si>
-  <si>
-    <t>Specify how rivers are discharged to the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
-  </si>
-  <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
-  </si>
-  <si>
-    <t>9.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Quantities Transported</t>
-  </si>
-  <si>
-    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
-  </si>
-  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -2523,7 +2616,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3226,20 +3322,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3250,10 +3346,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3261,7 +3357,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3272,10 +3368,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3288,10 +3384,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3299,10 +3395,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3315,21 +3411,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3337,10 +3433,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3348,10 +3444,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3388,20 +3484,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3412,10 +3508,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3423,7 +3519,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3434,10 +3530,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3450,10 +3546,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3461,10 +3557,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3477,21 +3573,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3499,21 +3595,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3521,10 +3617,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3532,10 +3628,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3543,21 +3639,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3567,10 +3663,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3578,10 +3674,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3592,10 +3688,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>74</v>
@@ -3603,21 +3699,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3627,10 +3723,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3638,10 +3734,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3654,10 +3750,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3665,10 +3761,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3679,13 +3775,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -3693,10 +3789,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3704,21 +3800,21 @@
         <v>66</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>74</v>
@@ -3726,10 +3822,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3737,10 +3833,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3753,10 +3849,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3764,10 +3860,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3780,23 +3876,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3804,21 +3900,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>74</v>
@@ -3826,10 +3922,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3837,10 +3933,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>788</v>
+        <v>818</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3850,16 +3946,16 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>74</v>
@@ -3867,16 +3963,16 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="AB79" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="AD79" s="6" t="s">
         <v>74</v>
@@ -3935,20 +4031,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3959,10 +4055,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3970,7 +4066,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3981,10 +4077,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3997,21 +4093,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4021,21 +4117,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4043,10 +4139,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4054,10 +4150,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4067,16 +4163,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>74</v>
@@ -4084,16 +4180,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -4101,10 +4197,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4112,10 +4208,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4123,10 +4219,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4134,10 +4230,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4150,34 +4246,34 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4187,10 +4283,10 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4198,21 +4294,21 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -4220,10 +4316,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4231,10 +4327,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4244,16 +4340,16 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -4261,21 +4357,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>834</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4285,21 +4381,21 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4309,20 +4405,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>61</v>
@@ -4333,10 +4429,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4729,7 +4825,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>84</v>
@@ -4755,7 +4851,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>84</v>
@@ -4781,7 +4877,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>84</v>
@@ -4807,10 +4903,10 @@
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4818,10 +4914,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4829,10 +4925,10 @@
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4840,10 +4936,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
@@ -4856,23 +4952,23 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4880,10 +4976,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4896,10 +4992,10 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4907,10 +5003,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -4923,10 +5019,10 @@
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4934,10 +5030,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4950,34 +5046,34 @@
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -4985,21 +5081,21 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -5007,10 +5103,10 @@
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -5018,10 +5114,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5029,23 +5125,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5053,10 +5149,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5064,10 +5160,10 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5075,10 +5171,10 @@
         <v>46</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5086,10 +5182,10 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5097,10 +5193,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5113,20 +5209,20 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>61</v>
@@ -5137,10 +5233,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -5195,20 +5291,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5219,10 +5315,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5230,7 +5326,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5241,10 +5337,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5257,20 +5353,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>61</v>
@@ -5281,10 +5377,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5297,21 +5393,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5319,20 +5415,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
@@ -5343,10 +5439,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5359,21 +5455,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5408,20 +5504,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5432,10 +5528,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5443,7 +5539,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5454,10 +5550,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5470,10 +5566,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5481,10 +5577,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5492,21 +5588,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5514,10 +5610,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5525,10 +5621,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5541,20 +5637,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
@@ -5565,10 +5661,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5581,10 +5677,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5592,23 +5688,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5616,23 +5712,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5640,10 +5736,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5651,10 +5747,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5662,23 +5758,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5686,34 +5782,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5721,10 +5817,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5732,10 +5828,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5743,34 +5839,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5778,10 +5874,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5789,10 +5885,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5803,13 +5899,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>74</v>
@@ -5817,10 +5913,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5828,21 +5924,21 @@
         <v>66</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>74</v>
@@ -5850,21 +5946,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5874,20 +5970,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>61</v>
@@ -5898,10 +5994,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5914,21 +6010,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5936,10 +6032,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5947,10 +6043,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5963,10 +6059,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5974,10 +6070,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5990,21 +6086,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -6014,10 +6110,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -6025,10 +6121,10 @@
         <v>66</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -6039,10 +6135,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>74</v>
@@ -6050,10 +6146,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6061,27 +6157,27 @@
         <v>66</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>74</v>
@@ -6089,34 +6185,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6126,10 +6222,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6137,23 +6233,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6161,10 +6257,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6177,20 +6273,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>61</v>
@@ -6201,10 +6297,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6217,10 +6313,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6228,10 +6324,10 @@
         <v>66</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6242,22 +6338,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>74</v>
@@ -6265,20 +6361,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>61</v>
@@ -6289,10 +6385,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6305,21 +6401,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6327,10 +6423,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6338,10 +6434,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6354,10 +6450,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6365,10 +6461,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6381,10 +6477,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6392,21 +6488,21 @@
         <v>66</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>74</v>
@@ -6414,10 +6510,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6425,10 +6521,10 @@
         <v>66</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6438,13 +6534,13 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AA181" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>74</v>
@@ -6452,13 +6548,13 @@
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
       <c r="B182" s="11" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AA182" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AB182" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AC182" s="6" t="s">
         <v>74</v>
@@ -6535,20 +6631,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6559,10 +6655,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6570,7 +6666,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6581,10 +6677,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6597,10 +6693,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6608,10 +6704,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6624,21 +6720,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6648,10 +6744,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6659,21 +6755,21 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>74</v>
@@ -6681,10 +6777,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6692,21 +6788,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -6714,10 +6810,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6725,19 +6821,19 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>74</v>
@@ -6745,10 +6841,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6756,21 +6852,21 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>74</v>
@@ -6778,10 +6874,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6789,21 +6885,21 @@
         <v>66</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>74</v>
@@ -6811,10 +6907,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6822,10 +6918,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6835,13 +6931,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -6849,13 +6945,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -6863,10 +6959,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6874,10 +6970,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6887,19 +6983,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>74</v>
@@ -6907,19 +7003,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>74</v>
@@ -6927,19 +7023,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>74</v>
@@ -6947,10 +7043,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6958,10 +7054,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6974,23 +7070,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6998,24 +7094,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7023,10 +7119,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -7034,10 +7130,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7047,22 +7143,22 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>247</v>
+        <v>432</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>74</v>
@@ -7130,20 +7226,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7154,10 +7250,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7165,7 +7261,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7176,10 +7272,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7192,21 +7288,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7214,21 +7310,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7236,10 +7332,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7247,10 +7343,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7263,10 +7359,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7274,21 +7370,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -7296,10 +7392,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7307,10 +7403,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7321,16 +7417,16 @@
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>89</v>
@@ -7341,10 +7437,10 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
@@ -7352,10 +7448,10 @@
         <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
@@ -7365,43 +7461,43 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AL38" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AM38" s="6" t="s">
         <v>74</v>
@@ -7409,43 +7505,43 @@
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AM39" s="6" t="s">
         <v>74</v>
@@ -7453,43 +7549,43 @@
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>74</v>
@@ -7497,43 +7593,43 @@
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>74</v>
@@ -7541,10 +7637,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7552,24 +7648,24 @@
         <v>66</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>74</v>
@@ -7577,10 +7673,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7588,10 +7684,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7599,21 +7695,21 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7623,10 +7719,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7634,21 +7730,21 @@
         <v>66</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>74</v>
@@ -7656,10 +7752,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7667,10 +7763,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7683,10 +7779,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7694,24 +7790,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>377</v>
+        <v>520</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7719,10 +7815,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7730,10 +7826,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7746,10 +7842,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7757,21 +7853,21 @@
         <v>66</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>74</v>
@@ -7779,10 +7875,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7790,10 +7886,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7806,10 +7902,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7817,19 +7913,19 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>74</v>
@@ -7837,10 +7933,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7848,10 +7944,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7864,10 +7960,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7875,10 +7971,10 @@
         <v>66</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7888,22 +7984,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>74</v>
@@ -7911,22 +8007,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>74</v>
@@ -7934,22 +8030,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>74</v>
@@ -7957,22 +8053,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>74</v>
@@ -7980,10 +8076,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7991,10 +8087,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -8007,10 +8103,10 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
@@ -8018,10 +8114,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -8109,20 +8205,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8133,10 +8229,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8144,7 +8240,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8155,10 +8251,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8171,10 +8267,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8182,10 +8278,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8198,21 +8294,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8222,10 +8318,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8233,10 +8329,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8246,19 +8342,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>74</v>
@@ -8266,10 +8362,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8277,10 +8373,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8290,10 +8386,10 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>74</v>
@@ -8331,20 +8427,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8355,10 +8451,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8366,7 +8462,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8377,10 +8473,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8393,10 +8489,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8404,10 +8500,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8420,21 +8516,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8442,10 +8538,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8453,10 +8549,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8467,13 +8563,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -8481,10 +8577,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8492,10 +8588,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8508,34 +8604,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8545,10 +8641,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8556,10 +8652,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8569,15 +8665,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8585,10 +8681,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8601,23 +8697,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +8721,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8641,23 +8737,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8665,10 +8761,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8681,10 +8777,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8692,10 +8788,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8708,23 +8804,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8732,10 +8828,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8748,10 +8844,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8759,27 +8855,27 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>74</v>
@@ -8787,10 +8883,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8798,27 +8894,27 @@
         <v>66</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>74</v>
@@ -8826,23 +8922,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8850,10 +8946,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8861,23 +8957,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8885,10 +8981,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8896,34 +8992,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8931,10 +9027,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8942,10 +9038,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8958,10 +9054,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8969,10 +9065,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8985,10 +9081,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8996,10 +9092,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -9012,34 +9108,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -9047,10 +9143,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -9058,10 +9154,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9071,15 +9167,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9087,10 +9183,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9103,10 +9199,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9114,10 +9210,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9130,34 +9226,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9165,10 +9261,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9176,10 +9272,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9192,10 +9288,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9203,10 +9299,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9219,10 +9315,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9230,10 +9326,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="847">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -234,19 +234,19 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phospherous</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Phospherous</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -279,30 +279,21 @@
     <t>Other: ice</t>
   </si>
   <si>
-    <t>bare soil</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>land ice</t>
-  </si>
-  <si>
-    <t>lake ice</t>
-  </si>
-  <si>
-    <t>vegetated</t>
-  </si>
-  <si>
     <t>Bare soil</t>
   </si>
   <si>
+    <t>Urban</t>
+  </si>
+  <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>Land ice</t>
+  </si>
+  <si>
+    <t>Lake ice</t>
+  </si>
+  <si>
     <t>Vegetated</t>
   </si>
   <si>
@@ -342,9 +333,6 @@
     <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -354,9 +342,6 @@
     <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -366,9 +351,6 @@
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -786,13 +768,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>vegetation type</t>
-  </si>
-  <si>
-    <t>soil humidity</t>
-  </si>
-  <si>
-    <t>vegetation state</t>
+    <t>Vegetation type</t>
+  </si>
+  <si>
+    <t>Soil humidity</t>
+  </si>
+  <si>
+    <t>Vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -810,10 +792,7 @@
     <t>Distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>no distinction between direct and diffuse albedo</t>
+    <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -900,7 +879,7 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>perfect connectivity: Common soil for multiple tiles</t>
+    <t>Perfect connectivity: Common soil for multiple tiles</t>
   </si>
   <si>
     <t>Darcian flow: Darcian flow among hillslope tiles</t>
@@ -1017,7 +996,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>topmodel-based</t>
+    <t>Topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1098,10 +1077,7 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>coupling with snow temperature</t>
+    <t>Coupling with snow temperature</t>
   </si>
   <si>
     <t>Other: plant uptake and ground divergence</t>
@@ -1170,12 +1146,6 @@
     <t>Constant</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
     <t>4.1.1.6 *</t>
   </si>
   <si>
@@ -1188,7 +1158,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>diagnostic</t>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1242,12 +1212,6 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>ground snow fraction</t>
-  </si>
-  <si>
-    <t>vegetation snow fraction</t>
-  </si>
-  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1263,24 +1227,18 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
-    <t>snow interception</t>
-  </si>
-  <si>
-    <t>snow melting</t>
-  </si>
-  <si>
-    <t>snow freezing</t>
-  </si>
-  <si>
-    <t>blowing snow</t>
-  </si>
-  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
+    <t>Snow freezing</t>
+  </si>
+  <si>
+    <t>Blowing snow</t>
+  </si>
+  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1311,7 +1269,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>prescribed</t>
+    <t>Prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1323,19 +1281,16 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>snow age</t>
-  </si>
-  <si>
-    <t>snow density</t>
-  </si>
-  <si>
-    <t>snow grain type</t>
-  </si>
-  <si>
-    <t>aerosol deposition</t>
+    <t>Snow age</t>
+  </si>
+  <si>
+    <t>Snow density</t>
+  </si>
+  <si>
+    <t>Snow grain type</t>
+  </si>
+  <si>
+    <t>Aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1410,10 +1365,7 @@
     <t>Biome types</t>
   </si>
   <si>
-    <t>vegetation types</t>
-  </si>
-  <si>
-    <t>biome types</t>
+    <t>Vegetation types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1428,10 +1380,10 @@
     <t>cmip6.land.vegetation.vegetation_types</t>
   </si>
   <si>
-    <t>broadleaf tree</t>
-  </si>
-  <si>
-    <t>needleleaf tree</t>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
   </si>
   <si>
     <t>C3 grass</t>
@@ -1455,51 +1407,39 @@
     <t>Deciduous broadleaf forest</t>
   </si>
   <si>
-    <t>evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>mixed forest</t>
-  </si>
-  <si>
-    <t>woodland</t>
-  </si>
-  <si>
-    <t>wooded grassland</t>
-  </si>
-  <si>
-    <t>closed shrubland</t>
-  </si>
-  <si>
-    <t>opne shrubland</t>
-  </si>
-  <si>
-    <t>grassland</t>
-  </si>
-  <si>
-    <t>cropland</t>
-  </si>
-  <si>
-    <t>wetlands</t>
+    <t>Evergreen needleleaf forest</t>
   </si>
   <si>
     <t>Evergreen broadleaf forest</t>
   </si>
   <si>
-    <t>Evergreen needleleaf forest</t>
+    <t>Deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>Mixed forest</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Wooded grassland</t>
+  </si>
+  <si>
+    <t>Closed shrubland</t>
+  </si>
+  <si>
+    <t>Opne shrubland</t>
   </si>
   <si>
     <t>Grassland</t>
   </si>
   <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
+  </si>
+  <si>
     <t>5.1.1.9 *</t>
   </si>
   <si>
@@ -1515,13 +1455,10 @@
     <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
-    <t>fixed (not varying)</t>
-  </si>
-  <si>
-    <t>prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>dynamical (varying from simulation)</t>
+    <t>Fixed (not varying)</t>
+  </si>
+  <si>
+    <t>Prescribed (varying from files)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1560,7 +1497,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>diagnostic (vegetation map)</t>
+    <t>Diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1587,9 +1524,6 @@
     <t>cmip6.land.vegetation.leaf_area_index</t>
   </si>
   <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1665,24 +1599,15 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>water availability</t>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Water availability</t>
   </si>
   <si>
     <t>O3</t>
   </si>
   <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Water availability</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1767,13 +1692,13 @@
     <t>Other: linked to photosynthesis</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>combined</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1791,9 +1716,6 @@
     <t>Transpiration</t>
   </si>
   <si>
-    <t>transpiration</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1851,13 +1773,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>grand slam protocol</t>
-  </si>
-  <si>
-    <t>residence time</t>
-  </si>
-  <si>
-    <t>decay time</t>
+    <t>Grand slam protocol</t>
+  </si>
+  <si>
+    <t>Residence time</t>
+  </si>
+  <si>
+    <t>Decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -2001,16 +1923,13 @@
     <t>Leaves + fine roots + coarse roots + stems</t>
   </si>
   <si>
-    <t>leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>whole plant (no distinction)</t>
+    <t>Leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>Leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>Whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -2028,16 +1947,13 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>function of vegetation type</t>
-  </si>
-  <si>
-    <t>function of plant allometry</t>
-  </si>
-  <si>
-    <t>explicitly calculated</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Function of vegetation type</t>
+  </si>
+  <si>
+    <t>Explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2352,10 +2268,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>flood plains</t>
-  </si>
-  <si>
-    <t>irrigation</t>
+    <t>Flood plains</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2394,10 +2310,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>tracers</t>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2415,10 +2331,7 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>present day</t>
-  </si>
-  <si>
-    <t>adapted for other periods</t>
+    <t>Adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2466,10 +2379,7 @@
     <t>Direct (large rivers)</t>
   </si>
   <si>
-    <t>direct (large rivers)</t>
-  </si>
-  <si>
-    <t>diffuse</t>
+    <t>Diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2484,9 +2394,6 @@
     <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -2616,10 +2523,7 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>horizontal</t>
+    <t>Horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3322,20 +3226,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3346,10 +3250,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3357,7 +3261,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3368,10 +3272,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3384,10 +3288,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3395,10 +3299,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3411,21 +3315,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3433,10 +3337,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3444,10 +3348,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3484,20 +3388,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3508,10 +3412,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3519,7 +3423,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3530,10 +3434,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3546,10 +3450,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3557,10 +3461,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3573,21 +3477,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3595,21 +3499,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3617,10 +3521,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3628,10 +3532,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3639,21 +3543,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3663,10 +3567,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3674,10 +3578,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3688,10 +3592,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>74</v>
@@ -3699,21 +3603,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3723,10 +3627,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3734,10 +3638,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3750,10 +3654,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3761,10 +3665,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3775,13 +3679,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -3789,10 +3693,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3800,21 +3704,21 @@
         <v>66</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>74</v>
@@ -3822,10 +3726,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3833,10 +3737,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3849,10 +3753,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3860,10 +3764,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3876,23 +3780,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>809</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3900,21 +3804,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>811</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>74</v>
@@ -3922,10 +3826,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3933,10 +3837,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3946,16 +3850,16 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>819</v>
+        <v>761</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>74</v>
@@ -3963,16 +3867,16 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="AB79" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AD79" s="6" t="s">
         <v>74</v>
@@ -4031,20 +3935,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4055,10 +3959,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4066,7 +3970,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4077,10 +3981,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4093,21 +3997,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>829</v>
+        <v>798</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4117,21 +4021,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4139,10 +4043,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4150,10 +4054,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4163,16 +4067,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>819</v>
+        <v>761</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>74</v>
@@ -4180,16 +4084,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -4197,10 +4101,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4208,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4219,10 +4123,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4230,10 +4134,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4246,34 +4150,34 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4283,10 +4187,10 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4294,21 +4198,21 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -4316,10 +4220,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4327,10 +4231,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4340,16 +4244,16 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -4357,21 +4261,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4381,21 +4285,21 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4405,20 +4309,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>61</v>
@@ -4429,10 +4333,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4825,7 +4729,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>84</v>
@@ -4851,7 +4755,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>84</v>
@@ -4877,7 +4781,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>84</v>
@@ -4903,10 +4807,10 @@
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4914,10 +4818,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4925,10 +4829,10 @@
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4936,10 +4840,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
@@ -4952,23 +4856,23 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4976,10 +4880,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4992,10 +4896,10 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -5003,10 +4907,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5019,10 +4923,10 @@
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -5030,10 +4934,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -5046,34 +4950,34 @@
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -5081,21 +4985,21 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -5103,10 +5007,10 @@
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -5114,10 +5018,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5125,23 +5029,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5149,10 +5053,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5160,10 +5064,10 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5171,10 +5075,10 @@
         <v>46</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5182,10 +5086,10 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5193,10 +5097,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5209,20 +5113,20 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>61</v>
@@ -5233,10 +5137,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -5291,20 +5195,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5315,10 +5219,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5326,7 +5230,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5337,10 +5241,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5353,20 +5257,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>61</v>
@@ -5377,10 +5281,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5393,21 +5297,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5415,20 +5319,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
@@ -5439,10 +5343,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5455,21 +5359,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5504,20 +5408,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5528,10 +5432,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5539,7 +5443,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5550,10 +5454,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5566,10 +5470,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5577,10 +5481,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5588,21 +5492,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5610,10 +5514,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5621,10 +5525,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5637,20 +5541,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
@@ -5661,10 +5565,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5677,10 +5581,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5688,23 +5592,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5712,23 +5616,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5736,10 +5640,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5747,10 +5651,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5758,23 +5662,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5782,34 +5686,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5817,10 +5721,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5828,10 +5732,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5839,34 +5743,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5874,10 +5778,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5885,10 +5789,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5899,13 +5803,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>74</v>
@@ -5913,10 +5817,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5924,21 +5828,21 @@
         <v>66</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>74</v>
@@ -5946,21 +5850,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5970,20 +5874,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>61</v>
@@ -5994,10 +5898,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -6010,21 +5914,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -6032,10 +5936,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6043,10 +5947,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6059,10 +5963,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6070,10 +5974,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -6086,21 +5990,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -6110,10 +6014,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -6121,10 +6025,10 @@
         <v>66</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -6135,10 +6039,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>74</v>
@@ -6146,10 +6050,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6157,27 +6061,27 @@
         <v>66</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>74</v>
@@ -6185,34 +6089,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6222,10 +6126,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6233,23 +6137,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6257,10 +6161,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6273,20 +6177,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>61</v>
@@ -6297,10 +6201,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6313,10 +6217,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6324,10 +6228,10 @@
         <v>66</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6338,22 +6242,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>74</v>
@@ -6361,20 +6265,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>61</v>
@@ -6385,10 +6289,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6401,21 +6305,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6423,10 +6327,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6434,10 +6338,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6450,10 +6354,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6461,10 +6365,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6477,10 +6381,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6488,21 +6392,21 @@
         <v>66</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>74</v>
@@ -6510,10 +6414,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6521,10 +6425,10 @@
         <v>66</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6534,13 +6438,13 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AA181" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>74</v>
@@ -6548,13 +6452,13 @@
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
       <c r="B182" s="11" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AA182" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AB182" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AC182" s="6" t="s">
         <v>74</v>
@@ -6631,20 +6535,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6655,10 +6559,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6666,7 +6570,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6677,10 +6581,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6693,10 +6597,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6704,10 +6608,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6720,21 +6624,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6744,10 +6648,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6755,21 +6659,21 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>74</v>
@@ -6777,10 +6681,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6788,21 +6692,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -6810,10 +6714,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6821,19 +6725,19 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>74</v>
@@ -6841,10 +6745,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6852,21 +6756,21 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>74</v>
@@ -6874,10 +6778,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6885,21 +6789,21 @@
         <v>66</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>74</v>
@@ -6907,10 +6811,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6918,10 +6822,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6931,13 +6835,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -6945,13 +6849,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -6959,10 +6863,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6970,10 +6874,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6983,19 +6887,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>74</v>
@@ -7003,19 +6907,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>74</v>
@@ -7023,19 +6927,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>74</v>
@@ -7043,10 +6947,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -7054,10 +6958,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -7070,23 +6974,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -7094,24 +6998,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7119,10 +7023,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -7130,10 +7034,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7143,22 +7047,22 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>432</v>
+        <v>247</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>74</v>
@@ -7226,20 +7130,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7250,10 +7154,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7261,7 +7165,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7272,10 +7176,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7288,21 +7192,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7310,21 +7214,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7332,10 +7236,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7343,10 +7247,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7359,10 +7263,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7370,21 +7274,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -7392,10 +7296,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7403,10 +7307,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7417,16 +7321,16 @@
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>89</v>
@@ -7437,10 +7341,10 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
@@ -7448,10 +7352,10 @@
         <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
@@ -7461,43 +7365,43 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="AL38" s="6" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="AM38" s="6" t="s">
         <v>74</v>
@@ -7505,43 +7409,43 @@
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="AM39" s="6" t="s">
         <v>74</v>
@@ -7549,43 +7453,43 @@
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>74</v>
@@ -7593,43 +7497,43 @@
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>74</v>
@@ -7637,10 +7541,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7648,24 +7552,24 @@
         <v>66</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>74</v>
@@ -7673,10 +7577,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7684,10 +7588,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7695,21 +7599,21 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7719,10 +7623,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7730,21 +7634,21 @@
         <v>66</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>74</v>
@@ -7752,10 +7656,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7763,10 +7667,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7779,10 +7683,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7790,24 +7694,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7815,10 +7719,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7826,10 +7730,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7842,10 +7746,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7853,21 +7757,21 @@
         <v>66</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>74</v>
@@ -7875,10 +7779,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7886,10 +7790,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7902,10 +7806,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7913,19 +7817,19 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>74</v>
@@ -7933,10 +7837,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7944,10 +7848,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7960,10 +7864,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7971,10 +7875,10 @@
         <v>66</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7984,22 +7888,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>74</v>
@@ -8007,22 +7911,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>74</v>
@@ -8030,22 +7934,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>74</v>
@@ -8053,22 +7957,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>74</v>
@@ -8076,10 +7980,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -8087,10 +7991,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -8103,10 +8007,10 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
@@ -8114,10 +8018,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -8205,20 +8109,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8229,10 +8133,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8240,7 +8144,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8251,10 +8155,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8267,10 +8171,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8278,10 +8182,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8294,21 +8198,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8318,10 +8222,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8329,10 +8233,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8342,19 +8246,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>74</v>
@@ -8362,10 +8266,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8373,10 +8277,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8386,10 +8290,10 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>74</v>
@@ -8427,20 +8331,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8451,10 +8355,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8462,7 +8366,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8473,10 +8377,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8489,10 +8393,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8500,10 +8404,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8516,21 +8420,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8538,10 +8442,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8549,10 +8453,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8563,13 +8467,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -8577,10 +8481,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8588,10 +8492,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8604,34 +8508,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8641,10 +8545,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8652,10 +8556,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8665,15 +8569,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8681,10 +8585,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8697,23 +8601,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8721,10 +8625,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8737,23 +8641,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8761,10 +8665,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8777,10 +8681,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8788,10 +8692,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8804,23 +8708,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8828,10 +8732,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8844,10 +8748,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8855,27 +8759,27 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>74</v>
@@ -8883,10 +8787,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8894,27 +8798,27 @@
         <v>66</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>74</v>
@@ -8922,23 +8826,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8946,10 +8850,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8957,23 +8861,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8981,10 +8885,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8992,34 +8896,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -9027,10 +8931,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -9038,10 +8942,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -9054,10 +8958,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -9065,10 +8969,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -9081,10 +8985,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -9092,10 +8996,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -9108,34 +9012,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -9143,10 +9047,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -9154,10 +9058,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9167,15 +9071,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9183,10 +9087,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9199,10 +9103,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9210,10 +9114,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9226,34 +9130,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9261,10 +9165,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9272,10 +9176,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9288,10 +9192,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9299,10 +9203,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9315,10 +9219,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9326,10 +9230,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="875">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -234,123 +234,141 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -768,13 +786,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -792,7 +810,10 @@
     <t>Distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -879,7 +900,7 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity: Common soil for multiple tiles</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
   </si>
   <si>
     <t>Darcian flow: Darcian flow among hillslope tiles</t>
@@ -996,7 +1017,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1074,13 +1095,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
-  </si>
-  <si>
-    <t>Other: plant uptake and ground divergence</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1146,6 +1164,12 @@
     <t>Constant</t>
   </si>
   <si>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
     <t>4.1.1.6 *</t>
   </si>
   <si>
@@ -1158,372 +1182,405 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Heat Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the heat content of snow</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.heat_content</t>
+  </si>
+  <si>
+    <t>4.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow temperature</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.temperature</t>
+  </si>
+  <si>
+    <t>4.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Liquid Water Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow liquid water</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.liquid_water_content</t>
+  </si>
+  <si>
+    <t>4.1.1.10 *</t>
+  </si>
+  <si>
+    <t>Snow Cover Fractions</t>
+  </si>
+  <si>
+    <t>Specify cover fractions used in the surface snow scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_cover_fractions</t>
+  </si>
+  <si>
+    <t>Ground snow fraction</t>
+  </si>
+  <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
+    <t>Vegetation snow fraction</t>
+  </si>
+  <si>
+    <t>4.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Snow related processes in the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.processes</t>
+  </si>
+  <si>
+    <t>Other: snow refreezing</t>
+  </si>
+  <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
+    <t>Snow interception</t>
+  </si>
+  <si>
+    <t>Snow melting</t>
+  </si>
+  <si>
+    <t>4.1.1.12 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the snow scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.prognostic_variables</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Snow --&gt; Snow Albedo</t>
+  </si>
+  <si>
+    <t>Snow albedo</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Describe the treatment of snow-covered land albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.type</t>
+  </si>
+  <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Describe the function types if prognostic snow albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.functions</t>
+  </si>
+  <si>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Land surface vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Time step of vegetation scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.time_step</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Dynamic Vegetation</t>
+  </si>
+  <si>
+    <t>Is there dynamic evolution of vegetation?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.dynamic_vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Describe the vegetation tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.tiling</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Vegetation Representation</t>
+  </si>
+  <si>
+    <t>Vegetation classification used</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_representation</t>
+  </si>
+  <si>
+    <t>Biome types</t>
+  </si>
+  <si>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.7 </t>
+  </si>
+  <si>
+    <t>Vegetation Types</t>
+  </si>
+  <si>
+    <t>List of vegetation types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_types</t>
+  </si>
+  <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.8 </t>
+  </si>
+  <si>
+    <t>Biome Types</t>
+  </si>
+  <si>
+    <t>List of biome types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.biome_types</t>
+  </si>
+  <si>
+    <t>Deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>Evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>Evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Vegetation Time Variation</t>
+  </si>
+  <si>
+    <t>How the vegetation fractions in each tile are varying with time</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_time_variation</t>
+  </si>
+  <si>
+    <t>Dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.10 </t>
+  </si>
+  <si>
+    <t>Vegetation Map</t>
+  </si>
+  <si>
+    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_map</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Is vegetation interception of rainwater represented?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.interception</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology</t>
+  </si>
+  <si>
+    <t>diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.13 </t>
+  </si>
+  <si>
+    <t>Phenology Description</t>
+  </si>
+  <si>
+    <t>General description of the treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology_description</t>
+  </si>
+  <si>
+    <t>5.1.1.14 *</t>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation leaf area index</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.leaf_area_index</t>
+  </si>
+  <si>
     <t>Diagnostic</t>
   </si>
   <si>
-    <t>4.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Heat Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the heat content of snow</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.heat_content</t>
-  </si>
-  <si>
-    <t>4.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow temperature</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.temperature</t>
-  </si>
-  <si>
-    <t>4.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Liquid Water Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow liquid water</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.liquid_water_content</t>
-  </si>
-  <si>
-    <t>4.1.1.10 *</t>
-  </si>
-  <si>
-    <t>Snow Cover Fractions</t>
-  </si>
-  <si>
-    <t>Specify cover fractions used in the surface snow scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_cover_fractions</t>
-  </si>
-  <si>
-    <t>Ground snow fraction</t>
-  </si>
-  <si>
-    <t>Vegetation snow fraction</t>
-  </si>
-  <si>
-    <t>4.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Snow related processes in the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.processes</t>
-  </si>
-  <si>
-    <t>Other: snow refreezing</t>
-  </si>
-  <si>
-    <t>Snow interception</t>
-  </si>
-  <si>
-    <t>Snow melting</t>
-  </si>
-  <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
-    <t>4.1.1.12 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the snow scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.prognostic_variables</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Snow --&gt; Snow Albedo</t>
-  </si>
-  <si>
-    <t>Snow albedo</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Describe the treatment of snow-covered land albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.type</t>
-  </si>
-  <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe the function types if prognostic snow albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.functions</t>
-  </si>
-  <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Land surface vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Time step of vegetation scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.time_step</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Dynamic Vegetation</t>
-  </si>
-  <si>
-    <t>Is there dynamic evolution of vegetation?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.dynamic_vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Describe the vegetation tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.tiling</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Vegetation Representation</t>
-  </si>
-  <si>
-    <t>Vegetation classification used</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_representation</t>
-  </si>
-  <si>
-    <t>Biome types</t>
-  </si>
-  <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.7 </t>
-  </si>
-  <si>
-    <t>Vegetation Types</t>
-  </si>
-  <si>
-    <t>List of vegetation types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_types</t>
-  </si>
-  <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.8 </t>
-  </si>
-  <si>
-    <t>Biome Types</t>
-  </si>
-  <si>
-    <t>List of biome types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.biome_types</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Vegetation Time Variation</t>
-  </si>
-  <si>
-    <t>How the vegetation fractions in each tile are varying with time</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_time_variation</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
-  </si>
-  <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.10 </t>
-  </si>
-  <si>
-    <t>Vegetation Map</t>
-  </si>
-  <si>
-    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_map</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Is vegetation interception of rainwater represented?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.interception</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology</t>
-  </si>
-  <si>
-    <t>Diagnostic (vegetation map)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.13 </t>
-  </si>
-  <si>
-    <t>Phenology Description</t>
-  </si>
-  <si>
-    <t>General description of the treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology_description</t>
-  </si>
-  <si>
-    <t>5.1.1.14 *</t>
-  </si>
-  <si>
-    <t>Leaf Area Index</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation leaf area index</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.leaf_area_index</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1599,15 +1656,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1692,13 +1758,13 @@
     <t>Other: linked to photosynthesis</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Combined</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1713,7 +1779,7 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
-    <t>Transpiration</t>
+    <t>transpiration</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -1773,13 +1839,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1923,13 +1989,16 @@
     <t>Leaves + fine roots + coarse roots + stems</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1947,13 +2016,16 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2268,10 +2340,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2310,150 +2382,159 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
+  </si>
+  <si>
+    <t>9.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Basin Flow Direction Map</t>
+  </si>
+  <si>
+    <t>What type of basin flow direction map is being used?</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
+  </si>
+  <si>
+    <t>Present day</t>
+  </si>
+  <si>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.1.13 </t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>Describe the representation of flooding, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.flooding</t>
+  </si>
+  <si>
+    <t>9.1.1.14 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the river routing</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.prognostic_variables</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>River Routing --&gt; Oceanic Discharge</t>
+  </si>
+  <si>
+    <t>Oceanic discharge treatment in river routing</t>
+  </si>
+  <si>
+    <t>9.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Discharge Type</t>
+  </si>
+  <si>
+    <t>Specify how rivers are discharged to the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
+  </si>
+  <si>
+    <t>Direct (large rivers)</t>
+  </si>
+  <si>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>9.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Quantities Transported</t>
+  </si>
+  <si>
+    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
+  </si>
+  <si>
+    <t>10.1.1</t>
+  </si>
+  <si>
+    <t>Lakes</t>
+  </si>
+  <si>
+    <t>Land surface lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the lakes in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface lakes in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.overview</t>
+  </si>
+  <si>
+    <t>10.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Coupling With Rivers</t>
+  </si>
+  <si>
+    <t>Are lakes coupled to the river routing model component?</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.coupling_with_rivers</t>
+  </si>
+  <si>
+    <t>10.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Time step of lake scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.5 </t>
+  </si>
+  <si>
+    <t>Quantities Exchanged With Rivers</t>
+  </si>
+  <si>
+    <t>If coupling with rivers, which quantities are exchanged between the lakes and rivers</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.quantities_exchanged_with_rivers</t>
+  </si>
+  <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>Tracers</t>
-  </si>
-  <si>
-    <t>9.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Basin Flow Direction Map</t>
-  </si>
-  <si>
-    <t>What type of basin flow direction map is being used?</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
-  </si>
-  <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.1.13 </t>
-  </si>
-  <si>
-    <t>Flooding</t>
-  </si>
-  <si>
-    <t>Describe the representation of flooding, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.flooding</t>
-  </si>
-  <si>
-    <t>9.1.1.14 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the river routing</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.prognostic_variables</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>River Routing --&gt; Oceanic Discharge</t>
-  </si>
-  <si>
-    <t>Oceanic discharge treatment in river routing</t>
-  </si>
-  <si>
-    <t>9.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Discharge Type</t>
-  </si>
-  <si>
-    <t>Specify how rivers are discharged to the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
-  </si>
-  <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
-  </si>
-  <si>
-    <t>9.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Quantities Transported</t>
-  </si>
-  <si>
-    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
-  </si>
-  <si>
-    <t>10.1.1</t>
-  </si>
-  <si>
-    <t>Lakes</t>
-  </si>
-  <si>
-    <t>Land surface lakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the lakes in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface lakes in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.overview</t>
-  </si>
-  <si>
-    <t>10.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Coupling With Rivers</t>
-  </si>
-  <si>
-    <t>Are lakes coupled to the river routing model component?</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.coupling_with_rivers</t>
-  </si>
-  <si>
-    <t>10.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Time step of lake scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.1.5 </t>
-  </si>
-  <si>
-    <t>Quantities Exchanged With Rivers</t>
-  </si>
-  <si>
-    <t>If coupling with rivers, which quantities are exchanged between the lakes and rivers</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.quantities_exchanged_with_rivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1.1.6 </t>
   </si>
   <si>
@@ -2523,7 +2604,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3226,20 +3310,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3250,10 +3334,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3261,7 +3345,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3272,10 +3356,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3288,10 +3372,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3299,10 +3383,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3315,21 +3399,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3337,10 +3421,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3348,10 +3432,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3374,7 +3458,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD79"/>
+  <dimension ref="A1:XFD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3388,20 +3472,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3412,10 +3496,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3423,7 +3507,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3434,10 +3518,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3450,10 +3534,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3461,10 +3545,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3477,21 +3561,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3499,21 +3583,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3521,10 +3605,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3532,10 +3616,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3543,21 +3627,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3567,10 +3651,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3578,10 +3662,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3592,10 +3676,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>74</v>
@@ -3603,21 +3687,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3627,10 +3711,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3638,10 +3722,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3654,10 +3738,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3665,10 +3749,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3679,13 +3763,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -3693,10 +3777,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3704,21 +3788,21 @@
         <v>66</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>74</v>
@@ -3726,10 +3810,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3737,10 +3821,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3753,10 +3837,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>773</v>
+        <v>798</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3764,10 +3848,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3780,23 +3864,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3804,21 +3888,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>74</v>
@@ -3826,10 +3910,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3837,10 +3921,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3849,41 +3933,22 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>761</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="B79" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA79" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB79" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC79" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AD79" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -3911,9 +3976,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AD78</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AD79</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3935,20 +3997,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3959,10 +4021,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3970,7 +4032,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3981,10 +4043,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3997,21 +4059,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4021,21 +4083,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4043,10 +4105,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4054,10 +4116,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4067,16 +4129,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>761</v>
+        <v>835</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>74</v>
@@ -4084,16 +4146,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -4101,10 +4163,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4112,10 +4174,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4123,10 +4185,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4134,10 +4196,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4150,34 +4212,34 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4187,10 +4249,10 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4198,21 +4260,21 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -4220,10 +4282,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4231,10 +4293,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4244,16 +4306,16 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -4261,21 +4323,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4285,21 +4347,21 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4309,20 +4371,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>61</v>
@@ -4333,10 +4395,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4729,7 +4791,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>84</v>
@@ -4755,7 +4817,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>84</v>
@@ -4781,7 +4843,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>84</v>
@@ -4807,10 +4869,10 @@
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4818,10 +4880,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4829,10 +4891,10 @@
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4840,10 +4902,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
@@ -4856,23 +4918,23 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4880,10 +4942,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4896,10 +4958,10 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4907,10 +4969,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -4923,10 +4985,10 @@
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4934,10 +4996,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4950,34 +5012,34 @@
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -4985,21 +5047,21 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -5007,10 +5069,10 @@
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -5018,10 +5080,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5029,23 +5091,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5053,10 +5115,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5064,10 +5126,10 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5075,10 +5137,10 @@
         <v>46</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5086,10 +5148,10 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5097,10 +5159,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5113,20 +5175,20 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>61</v>
@@ -5137,10 +5199,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -5195,20 +5257,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5219,10 +5281,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5230,7 +5292,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5241,10 +5303,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5257,20 +5319,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>61</v>
@@ -5281,10 +5343,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5297,21 +5359,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5319,20 +5381,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
@@ -5343,10 +5405,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5359,21 +5421,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5394,7 +5456,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD182"/>
+  <dimension ref="A1:XFD181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5408,20 +5470,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5432,10 +5494,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5443,7 +5505,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5454,10 +5516,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5470,10 +5532,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5481,10 +5543,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5492,21 +5554,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5514,10 +5576,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5525,10 +5587,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5541,20 +5603,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
@@ -5565,10 +5627,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5581,10 +5643,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5592,23 +5654,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5616,23 +5678,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5640,10 +5702,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5651,10 +5713,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5662,23 +5724,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5686,34 +5748,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5721,10 +5783,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5732,10 +5794,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5743,34 +5805,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5778,10 +5840,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5789,10 +5851,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5803,13 +5865,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>74</v>
@@ -5817,10 +5879,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5828,21 +5890,21 @@
         <v>66</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>74</v>
@@ -5850,21 +5912,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5874,20 +5936,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>61</v>
@@ -5898,10 +5960,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5914,21 +5976,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5936,10 +5998,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5947,10 +6009,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5963,10 +6025,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5974,10 +6036,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5990,21 +6052,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -6014,10 +6076,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -6025,10 +6087,10 @@
         <v>66</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -6039,10 +6101,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>74</v>
@@ -6050,10 +6112,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6061,27 +6123,27 @@
         <v>66</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>74</v>
@@ -6089,34 +6151,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6126,10 +6188,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6137,23 +6199,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6161,10 +6223,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6177,20 +6239,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>61</v>
@@ -6201,10 +6263,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6217,10 +6279,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6228,10 +6290,10 @@
         <v>66</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6242,22 +6304,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>74</v>
@@ -6265,20 +6327,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>61</v>
@@ -6289,10 +6351,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6305,21 +6367,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6327,10 +6389,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6338,10 +6400,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6354,10 +6416,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6365,10 +6427,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6381,10 +6443,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6392,21 +6454,21 @@
         <v>66</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>74</v>
@@ -6414,10 +6476,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6425,10 +6487,10 @@
         <v>66</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6437,35 +6499,19 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11" t="s">
-        <v>349</v>
-      </c>
+      <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="24" customHeight="1">
-      <c r="B182" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA182" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB182" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC182" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="16">
+  <dataValidations count="15">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
@@ -6511,9 +6557,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
       <formula1>AA181:AC181</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
-      <formula1>AA182:AC182</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6535,20 +6578,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6559,10 +6602,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6570,7 +6613,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6581,10 +6624,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6597,10 +6640,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6608,10 +6651,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6624,21 +6667,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6648,10 +6691,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6659,21 +6702,21 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>74</v>
@@ -6681,10 +6724,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6692,21 +6735,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -6714,10 +6757,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6725,19 +6768,19 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>74</v>
@@ -6745,10 +6788,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6756,21 +6799,21 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>74</v>
@@ -6778,10 +6821,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6789,21 +6832,21 @@
         <v>66</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>74</v>
@@ -6811,10 +6854,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6822,10 +6865,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6835,13 +6878,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -6849,13 +6892,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -6863,10 +6906,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6874,10 +6917,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6887,19 +6930,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>74</v>
@@ -6907,19 +6950,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>74</v>
@@ -6927,19 +6970,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>74</v>
@@ -6947,10 +6990,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6958,10 +7001,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6974,23 +7017,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6998,24 +7041,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7023,10 +7066,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -7034,10 +7077,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7046,23 +7089,21 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="B71" s="11"/>
       <c r="AA71" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>74</v>
@@ -7130,20 +7171,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7154,10 +7195,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7165,7 +7206,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7176,10 +7217,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7192,21 +7233,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7214,21 +7255,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7236,10 +7277,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7247,10 +7288,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7263,10 +7304,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7274,21 +7315,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -7296,10 +7337,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7307,10 +7348,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7321,16 +7362,16 @@
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>89</v>
@@ -7341,10 +7382,10 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
@@ -7352,10 +7393,10 @@
         <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
@@ -7365,43 +7406,43 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="AL38" s="6" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="AM38" s="6" t="s">
         <v>74</v>
@@ -7409,43 +7450,43 @@
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="AM39" s="6" t="s">
         <v>74</v>
@@ -7453,43 +7494,43 @@
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>74</v>
@@ -7497,43 +7538,43 @@
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>74</v>
@@ -7541,10 +7582,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7552,24 +7593,24 @@
         <v>66</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>74</v>
@@ -7577,10 +7618,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7588,10 +7629,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7599,21 +7640,21 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7623,10 +7664,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7634,21 +7675,21 @@
         <v>66</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>74</v>
@@ -7656,10 +7697,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7667,10 +7708,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7683,10 +7724,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7694,24 +7735,24 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>377</v>
+        <v>517</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -7719,10 +7760,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7730,10 +7771,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7746,10 +7787,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7757,21 +7798,21 @@
         <v>66</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>74</v>
@@ -7779,10 +7820,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7790,10 +7831,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7806,10 +7847,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7817,19 +7858,19 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>74</v>
@@ -7837,10 +7878,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7848,10 +7889,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7864,10 +7905,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7875,10 +7916,10 @@
         <v>66</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7888,22 +7929,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>74</v>
@@ -7911,22 +7952,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>74</v>
@@ -7934,22 +7975,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>74</v>
@@ -7957,22 +7998,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>74</v>
@@ -7980,10 +8021,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7991,10 +8032,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -8007,10 +8048,10 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
@@ -8018,10 +8059,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -8109,20 +8150,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8133,10 +8174,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8144,7 +8185,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8155,10 +8196,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8171,10 +8212,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8182,10 +8223,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8198,21 +8239,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8222,10 +8263,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8233,10 +8274,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8246,19 +8287,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>74</v>
@@ -8266,10 +8307,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8277,10 +8318,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8289,11 +8330,9 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>562</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>74</v>
@@ -8331,20 +8370,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8355,10 +8394,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8366,7 +8405,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8377,10 +8416,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8393,10 +8432,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8404,10 +8443,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8420,21 +8459,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8442,10 +8481,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8453,10 +8492,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8467,13 +8506,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -8481,10 +8520,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8492,10 +8531,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8508,34 +8547,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8545,10 +8584,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8556,10 +8595,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8569,15 +8608,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8585,10 +8624,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8601,23 +8640,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +8664,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8641,23 +8680,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8665,10 +8704,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8681,10 +8720,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8692,10 +8731,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8708,23 +8747,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8732,10 +8771,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8748,10 +8787,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8759,27 +8798,27 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>74</v>
@@ -8787,10 +8826,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8798,27 +8837,27 @@
         <v>66</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>74</v>
@@ -8826,23 +8865,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8850,10 +8889,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8861,23 +8900,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8885,10 +8924,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8896,34 +8935,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8931,10 +8970,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8942,10 +8981,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8958,10 +8997,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8969,10 +9008,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8985,10 +9024,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8996,10 +9035,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -9012,34 +9051,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -9047,10 +9086,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -9058,10 +9097,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9071,15 +9110,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9087,10 +9126,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9103,10 +9142,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9114,10 +9153,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9130,34 +9169,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9165,10 +9204,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9176,10 +9215,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9192,10 +9231,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9203,10 +9242,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9219,10 +9258,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9230,10 +9269,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
